--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>WITH ASSOCIATIVE MEMORY</t>
   </si>
@@ -36,6 +36,147 @@
   </si>
   <si>
     <t>150 test cases</t>
+  </si>
+  <si>
+    <t>Hardlim</t>
+  </si>
+  <si>
+    <t>Purelin</t>
+  </si>
+  <si>
+    <t>Logsig</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Correct numbers</t>
+  </si>
+  <si>
+    <t>Incorrect numbers</t>
+  </si>
+  <si>
+    <t>Undetected numbers</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0:03:35</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0:00:02</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0:12:39</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 </t>
+  </si>
+  <si>
+    <t>0:10:12</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>00:02:55</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t>00:03:28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>00:10:53</t>
+  </si>
+  <si>
+    <t>00:10:39</t>
   </si>
 </sst>
 </file>
@@ -71,8 +212,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,43 +501,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>3</v>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
-  <si>
-    <t>WITH ASSOCIATIVE MEMORY</t>
-  </si>
-  <si>
-    <t>WITHOUT ASSOCIATIVE MEMORY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>500 test cases</t>
   </si>
@@ -177,16 +171,146 @@
   </si>
   <si>
     <t>00:10:39</t>
+  </si>
+  <si>
+    <t>Activation function</t>
+  </si>
+  <si>
+    <t>Amount of test cases</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>The highest amount of correct numbers: logsig 500 cases with associative memory</t>
+  </si>
+  <si>
+    <t>Hardlim:</t>
+  </si>
+  <si>
+    <t>103 / 200</t>
+  </si>
+  <si>
+    <t>Logsig:</t>
+  </si>
+  <si>
+    <t>The only undetected numbers came from Hardlim</t>
+  </si>
+  <si>
+    <t>158 / 200</t>
+  </si>
+  <si>
+    <t>Purelin:</t>
+  </si>
+  <si>
+    <t>139 / 200</t>
+  </si>
+  <si>
+    <t>With AM</t>
+  </si>
+  <si>
+    <t>Without AM</t>
+  </si>
+  <si>
+    <t>185 / 300</t>
+  </si>
+  <si>
+    <t>215 / 300</t>
+  </si>
+  <si>
+    <t>150:</t>
+  </si>
+  <si>
+    <t>157/300</t>
+  </si>
+  <si>
+    <t>243/300</t>
+  </si>
+  <si>
+    <t>500:</t>
+  </si>
+  <si>
+    <t>Percentage of correct numbers</t>
+  </si>
+  <si>
+    <t>The training with 500 test cases took lot more time than with 150 test cases</t>
+  </si>
+  <si>
+    <t>In some cases, training was stopped as "Performance goal met"</t>
+  </si>
+  <si>
+    <t>RESULTS WITH ASSOCIATIVE MEMORY</t>
+  </si>
+  <si>
+    <t>RESULTS WITHOUT ASSOCIATIVE MEMORY</t>
+  </si>
+  <si>
+    <t>By activation function</t>
+  </si>
+  <si>
+    <t>By structure</t>
+  </si>
+  <si>
+    <t>By the amount of test cases</t>
+  </si>
+  <si>
+    <t>600 s</t>
+  </si>
+  <si>
+    <t>2673 s</t>
+  </si>
+  <si>
+    <t>Total training time with different amount of test cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,24 +332,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q9"/>
+  <dimension ref="A2:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="177" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,322 +822,492 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="7.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="6" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="1"/>
+    <col min="24" max="24" width="5.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="13" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11"/>
+      <c r="C2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="AB2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+    </row>
+    <row r="3" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="23"/>
+      <c r="S3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AB3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="28"/>
+      <c r="AB4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="L2" s="2" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>15</v>
+      <c r="M9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>50</v>
-      </c>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>34</v>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>35</v>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>19</v>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
